--- a/target/test-classes/testdata/SignUpData.xlsx
+++ b/target/test-classes/testdata/SignUpData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="516" yWindow="516" windowWidth="15996" windowHeight="7356"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="18492" windowHeight="2556"/>
   </bookViews>
   <sheets>
     <sheet name="SignUpData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -70,7 +71,7 @@
     <t>Pass123</t>
   </si>
   <si>
-    <t>john.doe876@gmail.com</t>
+    <t>johndoe*764@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/target/test-classes/testdata/SignUpData.xlsx
+++ b/target/test-classes/testdata/SignUpData.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="18492" windowHeight="2556"/>
+    <workbookView xWindow="516" yWindow="516" windowWidth="15996" windowHeight="7356"/>
   </bookViews>
   <sheets>
     <sheet name="SignUpData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -71,7 +70,7 @@
     <t>Pass123</t>
   </si>
   <si>
-    <t>johndoe*764@gmail.com</t>
+    <t>johnstar1234@gmail.com</t>
   </si>
 </sst>
 </file>
